--- a/app/Licenciatura_em_Educacao_Ambiental.xlsx
+++ b/app/Licenciatura_em_Educacao_Ambiental.xlsx
@@ -27,22 +27,20 @@
     <sheet name="20151402" sheetId="17" r:id="rId20"/>
     <sheet name="20151412" sheetId="18" r:id="rId21"/>
     <sheet name="20151406" sheetId="19" r:id="rId22"/>
-    <sheet name="20154423" sheetId="20" r:id="rId23"/>
-    <sheet name="20151442" sheetId="21" r:id="rId24"/>
-    <sheet name="20151405" sheetId="22" r:id="rId25"/>
-    <sheet name="20151401" sheetId="23" r:id="rId26"/>
-    <sheet name="20151420" sheetId="24" r:id="rId27"/>
-    <sheet name="20151408" sheetId="25" r:id="rId28"/>
-    <sheet name="20151410" sheetId="26" r:id="rId29"/>
-    <sheet name="20151416" sheetId="27" r:id="rId30"/>
-    <sheet name="20151417" sheetId="28" r:id="rId31"/>
-    <sheet name="20151414" sheetId="29" r:id="rId32"/>
-    <sheet name="20151439" sheetId="30" r:id="rId33"/>
-    <sheet name="20151415" sheetId="31" r:id="rId34"/>
-    <sheet name="20151409" sheetId="32" r:id="rId35"/>
-    <sheet name="20154424" sheetId="33" r:id="rId36"/>
-    <sheet name="Sheet2" sheetId="34" r:id="rId37"/>
-    <sheet name="Sheet3" sheetId="35" r:id="rId38"/>
+    <sheet name="20151442" sheetId="20" r:id="rId23"/>
+    <sheet name="20151405" sheetId="21" r:id="rId24"/>
+    <sheet name="20151401" sheetId="22" r:id="rId25"/>
+    <sheet name="20151420" sheetId="23" r:id="rId26"/>
+    <sheet name="20151408" sheetId="24" r:id="rId27"/>
+    <sheet name="20151410" sheetId="25" r:id="rId28"/>
+    <sheet name="20151416" sheetId="26" r:id="rId29"/>
+    <sheet name="20151417" sheetId="27" r:id="rId30"/>
+    <sheet name="20151414" sheetId="28" r:id="rId31"/>
+    <sheet name="20151439" sheetId="29" r:id="rId32"/>
+    <sheet name="20151415" sheetId="30" r:id="rId33"/>
+    <sheet name="20151409" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -50,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="275">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -199,9 +197,6 @@
     <t>Maria C. E. Eguirengane</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -238,9 +233,6 @@
     <t xml:space="preserve">Cecilia Jose Tembe </t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -292,9 +284,6 @@
     <t>Atalia Sumbane</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>100102480174J</t>
   </si>
   <si>
@@ -316,9 +305,6 @@
     <t>Maria Diogo Taela</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110200629323B</t>
   </si>
   <si>
@@ -367,9 +353,6 @@
     <t>Catarina</t>
   </si>
   <si>
-    <t>Distrito de Chókwé</t>
-  </si>
-  <si>
     <t>040101414502L</t>
   </si>
   <si>
@@ -439,9 +422,6 @@
     <t>Ana Seneta Leonardo Passa</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110101257032I</t>
   </si>
   <si>
@@ -484,9 +464,6 @@
     <t>Maria Adelia Mondlane</t>
   </si>
   <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
     <t>090300546515B</t>
   </si>
   <si>
@@ -577,9 +554,6 @@
     <t>Merciana Paulino Cossa</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>100201774983M</t>
   </si>
   <si>
@@ -601,9 +575,6 @@
     <t>Beatriz Martins</t>
   </si>
   <si>
-    <t>Cidade de Pemba</t>
-  </si>
-  <si>
     <t>110400170489I</t>
   </si>
   <si>
@@ -628,9 +599,6 @@
     <t>Candida Jaime Mandlhate</t>
   </si>
   <si>
-    <t>Distrito de Chibuto</t>
-  </si>
-  <si>
     <t>090301578460F</t>
   </si>
   <si>
@@ -640,12 +608,6 @@
     <t>Macamo</t>
   </si>
   <si>
-    <t>Ernestina Atanasio</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t xml:space="preserve">Albino Tomas </t>
   </si>
   <si>
@@ -679,9 +641,6 @@
     <t>Maria Manuela Encarnacao</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>040101920815D</t>
   </si>
   <si>
@@ -778,9 +737,6 @@
     <t xml:space="preserve">Maria JosÉ </t>
   </si>
   <si>
-    <t>Distrito de Búzi</t>
-  </si>
-  <si>
     <t xml:space="preserve">070201096972N </t>
   </si>
   <si>
@@ -805,9 +761,6 @@
     <t>Aurora Benedita Antonio</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110200628882P</t>
   </si>
   <si>
@@ -832,9 +785,6 @@
     <t>Alegria Raul Josine</t>
   </si>
   <si>
-    <t>Distrito de Magude</t>
-  </si>
-  <si>
     <t>100300594232S</t>
   </si>
   <si>
@@ -877,9 +827,6 @@
     <t>Vitoria Estevao Tovela</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>110200519300C</t>
   </si>
   <si>
@@ -926,12 +873,6 @@
   </si>
   <si>
     <t>+258845237665</t>
-  </si>
-  <si>
-    <t>Abdula</t>
-  </si>
-  <si>
-    <t>Hagira Amade</t>
   </si>
 </sst>
 </file>
@@ -2191,7 +2132,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2207,7 +2148,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2223,7 +2164,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2239,7 +2180,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2255,7 +2196,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2270,9 +2211,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2280,7 +2219,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2291,7 +2230,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2300,7 +2239,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2312,7 +2251,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2320,7 +2259,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2416,7 +2355,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2459,7 +2398,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2786,7 +2725,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2802,7 +2741,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2818,7 +2757,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2834,7 +2773,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2850,7 +2789,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2865,9 +2804,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2875,7 +2812,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2886,7 +2823,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2895,7 +2832,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2907,7 +2844,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2915,7 +2852,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3011,7 +2948,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3054,7 +2991,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3381,7 +3318,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3397,7 +3334,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3413,7 +3350,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3429,7 +3366,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3445,7 +3382,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3460,9 +3397,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>105</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3470,7 +3405,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3481,7 +3416,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3490,7 +3425,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3502,7 +3437,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3510,7 +3445,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3606,7 +3541,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3649,7 +3584,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3976,7 +3911,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3992,7 +3927,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4008,7 +3943,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4024,7 +3959,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4040,7 +3975,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4055,9 +3990,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>144</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4065,7 +3998,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4076,7 +4009,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4085,7 +4018,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4097,7 +4030,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4105,7 +4038,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4201,7 +4134,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4244,7 +4177,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4571,7 +4504,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4587,7 +4520,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4603,7 +4536,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4619,7 +4552,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4635,7 +4568,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4650,9 +4583,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4660,7 +4591,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4671,7 +4602,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4680,7 +4611,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4692,7 +4623,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4700,7 +4631,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4796,7 +4727,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4839,7 +4770,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5166,7 +5097,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5182,7 +5113,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5198,7 +5129,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5214,7 +5145,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5230,7 +5161,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5245,9 +5176,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5255,7 +5184,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5266,7 +5195,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5275,7 +5204,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5287,7 +5216,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5295,7 +5224,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5391,7 +5320,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5434,7 +5363,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5761,7 +5690,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5777,7 +5706,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5793,7 +5722,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5809,7 +5738,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5825,7 +5754,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5840,9 +5769,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5850,7 +5777,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5861,7 +5788,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5870,7 +5797,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5882,7 +5809,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5890,7 +5817,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5986,7 +5913,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6029,7 +5956,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6356,7 +6283,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6372,7 +6299,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6388,7 +6315,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6404,7 +6331,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6420,7 +6347,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6435,9 +6362,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>175</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6445,7 +6370,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6456,7 +6381,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6465,7 +6390,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6477,7 +6402,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6485,7 +6410,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6581,7 +6506,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6624,7 +6549,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6951,7 +6876,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6967,7 +6892,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6983,7 +6908,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6999,7 +6924,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7015,7 +6940,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7030,9 +6955,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>183</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7040,7 +6963,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7051,7 +6974,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7060,7 +6983,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7072,7 +6995,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7080,7 +7003,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7176,7 +7099,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7219,7 +7142,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7546,7 +7469,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7562,7 +7485,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7578,7 +7501,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7594,7 +7517,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7610,7 +7533,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7625,9 +7548,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>192</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7635,7 +7556,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7646,7 +7567,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7655,7 +7576,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7667,7 +7588,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7675,7 +7596,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7771,7 +7692,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7814,7 +7735,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8220,9 +8141,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8230,7 +8149,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8241,7 +8160,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8250,7 +8169,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8262,7 +8181,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8270,7 +8189,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8366,7 +8285,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8409,7 +8328,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8660,7 +8579,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -8710,7 +8631,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154423</v>
+        <v>20151442</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8734,7 +8655,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8750,7 +8671,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8765,7 +8686,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -8779,7 +8702,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>188</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -8793,7 +8718,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>189</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -8814,7 +8741,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -8823,14 +8752,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -8840,13 +8773,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>190</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -8941,7 +8878,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8967,7 +8904,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2012</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -8981,7 +8920,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -9283,7 +9224,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151442</v>
+        <v>20151405</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9307,7 +9248,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9323,7 +9264,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9339,7 +9280,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9355,7 +9296,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9371,7 +9312,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9386,9 +9327,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9396,7 +9335,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9407,7 +9346,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9416,7 +9355,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9428,7 +9367,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9436,7 +9375,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9532,7 +9471,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9575,7 +9514,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9878,7 +9817,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151405</v>
+        <v>20151401</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9902,7 +9841,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9918,7 +9857,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9934,7 +9873,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9950,7 +9889,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9966,7 +9905,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9981,9 +9920,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>209</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9991,7 +9928,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10002,7 +9939,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10011,7 +9948,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10023,7 +9960,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10031,7 +9968,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10127,7 +10064,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10154,7 +10091,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10170,7 +10107,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10473,7 +10410,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151401</v>
+        <v>20151420</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10497,7 +10434,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10513,7 +10450,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10529,7 +10466,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10545,7 +10482,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10561,7 +10498,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10576,9 +10513,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10586,7 +10521,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10597,7 +10532,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10606,7 +10541,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10618,7 +10553,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10626,7 +10561,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10722,7 +10657,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10749,7 +10684,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10765,7 +10700,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11068,7 +11003,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151420</v>
+        <v>20151408</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11092,7 +11027,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11108,7 +11043,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11124,7 +11059,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11140,7 +11075,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11156,7 +11091,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11171,9 +11106,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11181,7 +11114,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11192,7 +11125,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11201,7 +11134,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>226</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11213,7 +11146,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11221,7 +11154,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11317,7 +11250,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11344,7 +11277,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11360,7 +11293,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>229</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11663,7 +11596,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151408</v>
+        <v>20151410</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11687,7 +11620,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11703,7 +11636,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11719,7 +11652,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11735,7 +11668,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11751,7 +11684,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11766,9 +11699,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11776,7 +11707,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11787,7 +11718,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11796,7 +11727,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11808,7 +11739,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11816,7 +11747,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11912,7 +11843,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11939,7 +11870,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11955,7 +11886,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12258,7 +12189,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151410</v>
+        <v>20151416</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12282,7 +12213,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12298,7 +12229,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12314,7 +12245,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12330,7 +12261,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12346,7 +12277,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12361,9 +12292,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>242</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12371,7 +12300,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12382,7 +12311,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12391,7 +12320,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12403,7 +12332,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12411,7 +12340,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12507,7 +12436,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12534,7 +12463,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12550,7 +12479,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12853,7 +12782,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151416</v>
+        <v>20151417</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12877,7 +12806,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12893,7 +12822,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12909,7 +12838,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12925,7 +12854,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12941,7 +12870,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12956,9 +12885,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>251</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12966,7 +12893,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12977,7 +12904,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12986,7 +12913,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12998,7 +12925,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13006,7 +12933,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13102,7 +13029,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13129,7 +13056,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13145,7 +13072,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13448,7 +13375,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151417</v>
+        <v>20151414</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13472,7 +13399,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13488,7 +13415,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13504,7 +13431,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13520,7 +13447,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13536,7 +13463,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13551,9 +13478,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>260</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13561,7 +13486,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13572,7 +13497,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13581,7 +13506,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13593,7 +13518,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13601,7 +13526,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13697,7 +13622,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13740,7 +13665,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14043,7 +13968,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151414</v>
+        <v>20151439</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14067,7 +13992,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14083,7 +14008,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14099,7 +14024,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14115,7 +14040,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14131,7 +14056,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14146,9 +14071,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>192</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14156,7 +14079,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14167,7 +14090,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14176,7 +14099,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14188,7 +14111,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14196,7 +14119,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14292,7 +14215,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14319,7 +14242,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14335,7 +14258,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14662,7 +14585,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14678,7 +14601,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14694,7 +14617,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14710,7 +14633,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14726,7 +14649,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14741,9 +14664,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14751,7 +14672,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14762,7 +14683,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14771,7 +14692,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14783,7 +14704,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14791,7 +14712,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14887,7 +14808,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14930,7 +14851,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15233,7 +15154,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151439</v>
+        <v>20151415</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15257,7 +15178,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15273,7 +15194,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15289,7 +15210,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15305,7 +15226,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15321,7 +15242,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15336,9 +15257,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>275</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15346,7 +15265,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15357,7 +15276,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15366,7 +15285,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15378,7 +15297,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15386,7 +15305,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15482,7 +15401,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15509,7 +15428,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15525,7 +15444,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15828,7 +15747,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151415</v>
+        <v>20151409</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15852,7 +15771,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15868,7 +15787,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15884,7 +15803,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15900,7 +15819,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15916,7 +15835,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15931,9 +15850,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>209</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15941,7 +15858,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15952,7 +15869,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15961,7 +15878,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15973,7 +15890,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15981,7 +15898,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16077,7 +15994,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16104,7 +16021,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16120,7 +16037,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16323,1172 +16240,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151409</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2012</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154424</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -17512,7 +16263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17669,7 +16420,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17685,7 +16436,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17701,7 +16452,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17717,7 +16468,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17733,7 +16484,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17748,9 +16499,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17758,7 +16507,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17769,7 +16518,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17778,7 +16527,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17790,7 +16539,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17798,7 +16547,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17894,7 +16643,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17937,7 +16686,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18264,7 +17013,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18280,7 +17029,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18296,7 +17045,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18312,7 +17061,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18328,7 +17077,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18343,9 +17092,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18353,7 +17100,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18364,7 +17111,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18373,7 +17120,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18385,7 +17132,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18393,7 +17140,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18489,7 +17236,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18532,7 +17279,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18859,7 +17606,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18875,7 +17622,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18891,7 +17638,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18907,7 +17654,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18923,7 +17670,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18938,9 +17685,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18948,7 +17693,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18959,7 +17704,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18968,7 +17713,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18980,7 +17725,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18988,7 +17733,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19084,7 +17829,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19127,7 +17872,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19454,7 +18199,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19470,7 +18215,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19486,7 +18231,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19502,7 +18247,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19518,7 +18263,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19533,9 +18278,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19543,7 +18286,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19554,7 +18297,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19563,7 +18306,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19575,7 +18318,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19583,7 +18326,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19679,7 +18422,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19722,7 +18465,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20049,7 +18792,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20065,7 +18808,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20081,7 +18824,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20097,7 +18840,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20113,7 +18856,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20128,9 +18871,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>105</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20138,7 +18879,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20149,7 +18890,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20158,7 +18899,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20170,7 +18911,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20178,7 +18919,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20274,7 +19015,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20317,7 +19058,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20644,7 +19385,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20660,7 +19401,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20676,7 +19417,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20692,7 +19433,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20708,7 +19449,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20723,9 +19464,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20733,7 +19472,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20744,7 +19483,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20753,7 +19492,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20765,7 +19504,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20773,7 +19512,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20869,7 +19608,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20912,7 +19651,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
